--- a/results/[6_green_friendly]_#_fix_cost.xlsx
+++ b/results/[6_green_friendly]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17.40291001593653</v>
+        <v>829.8121061896435</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.37922676181793</v>
+        <v>23140.84314442363</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>6476.740570129467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>99.56472866795521</v>
+        <v>12936.85348562943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>38793.7771360128</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8710.977021824001</v>
       </c>
       <c r="N2" t="n">
-        <v>16.9381012440463</v>
+        <v>5677.290702752102</v>
       </c>
       <c r="O2" t="n">
-        <v>24.14334850722242</v>
+        <v>5600.52064569515</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.04538817475573</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>46.45204577748675</v>
+        <v>3326.071192682715</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>168.1190110777331</v>
+        <v>36793.52723445751</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>6476.740570129467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>285.1346004122072</v>
+        <v>29663.30255951012</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>43875.22642653178</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14345.71620898827</v>
       </c>
       <c r="N2" t="n">
-        <v>45.33722996212497</v>
+        <v>7246.365569547914</v>
       </c>
       <c r="O2" t="n">
-        <v>48.58376494331903</v>
+        <v>7792.205117936748</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30.0385370189617</v>
+        <v>2203.454043650656</v>
       </c>
       <c r="B2" t="n">
-        <v>91.43806656918846</v>
+        <v>5095.128507301514</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.2218895273641</v>
+        <v>45965.96245611054</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>6476.740570129467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>560.3266589375276</v>
+        <v>41972.58945122286</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>43875.22642653178</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>18015.64306159729</v>
       </c>
       <c r="N2" t="n">
-        <v>102.402660734942</v>
+        <v>10465.50319727667</v>
       </c>
       <c r="O2" t="n">
-        <v>90.97662657860657</v>
+        <v>10302.25342564116</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30.0385370189617</v>
+        <v>2203.454043650656</v>
       </c>
       <c r="B2" t="n">
-        <v>91.43806656918846</v>
+        <v>5095.128507301514</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.2218895273641</v>
+        <v>45965.96245611054</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>6476.740570129467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>560.3266589375276</v>
+        <v>41972.58945122286</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>43875.22642653178</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>18015.64306159729</v>
       </c>
       <c r="N2" t="n">
-        <v>102.402660734942</v>
+        <v>10560.45753314467</v>
       </c>
       <c r="O2" t="n">
-        <v>94.11597865138886</v>
+        <v>10302.25342564116</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.48792722472318</v>
+        <v>4570.520850279678</v>
       </c>
       <c r="B2" t="n">
-        <v>91.43806656918846</v>
+        <v>5095.128507301514</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.2218895273641</v>
+        <v>45965.96245611054</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>6476.740570129467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>560.3266589375276</v>
+        <v>41972.58945122286</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>43875.22642653178</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>18015.64306159729</v>
       </c>
       <c r="N2" t="n">
-        <v>102.402660734942</v>
+        <v>10923.79731980866</v>
       </c>
       <c r="O2" t="n">
-        <v>96.80401342787891</v>
+        <v>11973.13874139941</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.48792722472318</v>
+        <v>4570.520850279678</v>
       </c>
       <c r="B2" t="n">
-        <v>91.43806656918846</v>
+        <v>5095.128507301514</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.2218895273641</v>
+        <v>45965.96245611054</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>6476.740570129467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>560.3266589375276</v>
+        <v>41972.58945122286</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>43875.22642653178</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>18015.64306159729</v>
       </c>
       <c r="N2" t="n">
-        <v>102.402660734942</v>
+        <v>10923.79731980866</v>
       </c>
       <c r="O2" t="n">
-        <v>96.80401342787891</v>
+        <v>11973.13874139941</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_fix_cost.xlsx
+++ b/results/[6_green_friendly]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>550.6349724949675</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2856.149191032757</v>
+        <v>4643.648618400006</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11789.86550427104</v>
+        <v>25456.26397561083</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>6476.740570129472</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17766.310461836</v>
+        <v>16933.18557977695</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15751.60187077389</v>
+        <v>39143.9272052782</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4908.481517393488</v>
+        <v>5821.738406027571</v>
       </c>
       <c r="O2" t="n">
-        <v>2798.437062251979</v>
+        <v>5302.988247317633</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3101.004249988794</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8267.638281842959</v>
+        <v>9965.006158227299</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41454.20656436202</v>
+        <v>39547.58565454994</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>6476.740570129472</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35005.84161830663</v>
+        <v>30705.06632272005</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80190.03322841038</v>
+        <v>49205.58645585191</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15307.01712655463</v>
+        <v>7247.505766086322</v>
       </c>
       <c r="O2" t="n">
-        <v>5276.387211385127</v>
+        <v>5889.244643755163</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5069.659360429414</v>
+        <v>946.6406440477318</v>
       </c>
       <c r="B2" t="n">
-        <v>20863.30189647256</v>
+        <v>12781.35005318568</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91940.55226614195</v>
+        <v>52951.6254444812</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>6476.740570129472</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85567.10044626478</v>
+        <v>44990.08152832965</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>130359.1038040414</v>
+        <v>49205.58645585191</v>
       </c>
       <c r="M2" t="n">
-        <v>19088.71540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23495.38725568871</v>
+        <v>10814.1436151428</v>
       </c>
       <c r="O2" t="n">
-        <v>18873.62690052681</v>
+        <v>9857.796993951411</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5069.659360429414</v>
+        <v>946.6406440477318</v>
       </c>
       <c r="B2" t="n">
-        <v>20863.30189647256</v>
+        <v>12781.35005318568</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91940.55226614195</v>
+        <v>52951.6254444812</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>6476.740570129472</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85567.10044626478</v>
+        <v>44990.08152832965</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>130359.1038040414</v>
+        <v>49205.58645585191</v>
       </c>
       <c r="M2" t="n">
-        <v>19088.71540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23495.38725568871</v>
+        <v>10814.1436151428</v>
       </c>
       <c r="O2" t="n">
-        <v>18873.62690052681</v>
+        <v>9857.796993951411</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5069.659360429414</v>
+        <v>946.6406440477318</v>
       </c>
       <c r="B2" t="n">
-        <v>20863.30189647256</v>
+        <v>12781.35005318568</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91940.55226614195</v>
+        <v>52951.6254444812</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>6476.740570129472</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85567.10044626478</v>
+        <v>44990.08152832965</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>130359.1038040414</v>
+        <v>49205.58645585191</v>
       </c>
       <c r="M2" t="n">
-        <v>19088.71540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23495.38725568871</v>
+        <v>10814.1436151428</v>
       </c>
       <c r="O2" t="n">
-        <v>18873.62690052681</v>
+        <v>9857.796993951411</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5069.659360429414</v>
+        <v>946.6406440477318</v>
       </c>
       <c r="B2" t="n">
-        <v>20863.30189647256</v>
+        <v>12781.35005318568</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91940.55226614195</v>
+        <v>52951.6254444812</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>6476.740570129472</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85567.10044626478</v>
+        <v>44990.08152832965</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>130359.1038040414</v>
+        <v>49205.58645585191</v>
       </c>
       <c r="M2" t="n">
-        <v>19088.71540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23495.38725568871</v>
+        <v>10814.1436151428</v>
       </c>
       <c r="O2" t="n">
-        <v>18873.62690052681</v>
+        <v>9857.796993951411</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_fix_cost.xlsx
+++ b/results/[6_green_friendly]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4643.648618400006</v>
+        <v>4606.792104640001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25456.26397561083</v>
+        <v>25498.12308191619</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129472</v>
+        <v>6476.740570129279</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16933.18557977695</v>
+        <v>16841.08627624734</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39143.9272052782</v>
+        <v>38966.8043028528</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5821.738406027571</v>
+        <v>5925.595846434439</v>
       </c>
       <c r="O2" t="n">
-        <v>5302.988247317633</v>
+        <v>5783.209061509805</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9965.006158227299</v>
+        <v>12052.96480410071</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>39547.58565454994</v>
+        <v>49207.63982320241</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129472</v>
+        <v>6476.740570129279</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30705.06632272005</v>
+        <v>36930.73042578512</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49205.58645585191</v>
+        <v>60309.8266053096</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7247.505766086322</v>
+        <v>8596.626505690228</v>
       </c>
       <c r="O2" t="n">
-        <v>5889.244643755163</v>
+        <v>6797.920363700021</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>946.6406440477318</v>
+        <v>905.2525562708205</v>
       </c>
       <c r="B2" t="n">
-        <v>12781.35005318568</v>
+        <v>14956.7244159437</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52951.6254444812</v>
+        <v>62169.85694760515</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129472</v>
+        <v>6476.740570129279</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44990.08152832965</v>
+        <v>50371.84638669913</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49205.58645585191</v>
+        <v>60309.8266053096</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10814.1436151428</v>
+        <v>12647.54260460591</v>
       </c>
       <c r="O2" t="n">
-        <v>9857.796993951411</v>
+        <v>11316.43706107227</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>946.6406440477318</v>
+        <v>905.2525562708205</v>
       </c>
       <c r="B2" t="n">
-        <v>12781.35005318568</v>
+        <v>14956.7244159437</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52951.6254444812</v>
+        <v>62169.85694760515</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129472</v>
+        <v>6476.740570129279</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44990.08152832965</v>
+        <v>50371.84638669913</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49205.58645585191</v>
+        <v>60309.8266053096</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10814.1436151428</v>
+        <v>12647.54260460591</v>
       </c>
       <c r="O2" t="n">
-        <v>9857.796993951411</v>
+        <v>11316.43706107227</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>946.6406440477318</v>
+        <v>905.2525562708205</v>
       </c>
       <c r="B2" t="n">
-        <v>12781.35005318568</v>
+        <v>14956.7244159437</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52951.6254444812</v>
+        <v>62169.85694760515</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129472</v>
+        <v>6476.740570129279</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44990.08152832965</v>
+        <v>50371.84638669913</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49205.58645585191</v>
+        <v>60309.8266053096</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10814.1436151428</v>
+        <v>12647.54260460591</v>
       </c>
       <c r="O2" t="n">
-        <v>9857.796993951411</v>
+        <v>11316.43706107227</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>946.6406440477318</v>
+        <v>905.2525562708205</v>
       </c>
       <c r="B2" t="n">
-        <v>12781.35005318568</v>
+        <v>14956.7244159437</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52951.6254444812</v>
+        <v>62169.85694760515</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129472</v>
+        <v>6476.740570129279</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44990.08152832965</v>
+        <v>50371.84638669913</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49205.58645585191</v>
+        <v>60309.8266053096</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10814.1436151428</v>
+        <v>12647.54260460591</v>
       </c>
       <c r="O2" t="n">
-        <v>9857.796993951411</v>
+        <v>11316.43706107227</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_fix_cost.xlsx
+++ b/results/[6_green_friendly]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>829.8121061896435</v>
+        <v>779.1630278080007</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23140.84314442363</v>
+        <v>23185.90077278444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>12936.85348562943</v>
+        <v>12940.225083824</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38793.7771360128</v>
+        <v>38819.6236028304</v>
       </c>
       <c r="M2" t="n">
-        <v>8710.977021824001</v>
+        <v>8707.039609781334</v>
       </c>
       <c r="N2" t="n">
-        <v>5677.290702752102</v>
+        <v>5744.096799946036</v>
       </c>
       <c r="O2" t="n">
-        <v>5600.52064569515</v>
+        <v>5589.635007435185</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3326.071192682715</v>
+        <v>4570.048142274309</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>36793.52723445751</v>
+        <v>44884.8447102553</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29663.30255951012</v>
+        <v>35374.31877773289</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43875.22642653178</v>
+        <v>53573.26199887139</v>
       </c>
       <c r="M2" t="n">
-        <v>14345.71620898827</v>
+        <v>18074.35048528854</v>
       </c>
       <c r="N2" t="n">
-        <v>7246.365569547914</v>
+        <v>8506.387057313099</v>
       </c>
       <c r="O2" t="n">
-        <v>7792.205117936748</v>
+        <v>9664.202924111112</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2203.454043650656</v>
+        <v>2289.569120990697</v>
       </c>
       <c r="B2" t="n">
-        <v>5095.128507301514</v>
+        <v>6421.511730469836</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45965.96245611054</v>
+        <v>53838.19196405857</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41972.58945122286</v>
+        <v>47405.14060738889</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43875.22642653178</v>
+        <v>53573.26199887139</v>
       </c>
       <c r="M2" t="n">
-        <v>18015.64306159729</v>
+        <v>20935.70896779413</v>
       </c>
       <c r="N2" t="n">
-        <v>10465.50319727667</v>
+        <v>12148.8294540729</v>
       </c>
       <c r="O2" t="n">
-        <v>10302.25342564116</v>
+        <v>11823.7365588148</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2203.454043650656</v>
+        <v>2289.569120990697</v>
       </c>
       <c r="B2" t="n">
-        <v>5095.128507301514</v>
+        <v>6421.511730469836</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45965.96245611054</v>
+        <v>53838.19196405857</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41972.58945122286</v>
+        <v>47405.14060738889</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43875.22642653178</v>
+        <v>53573.26199887139</v>
       </c>
       <c r="M2" t="n">
-        <v>18015.64306159729</v>
+        <v>20935.70896779413</v>
       </c>
       <c r="N2" t="n">
-        <v>10560.45753314467</v>
+        <v>12233.16180906476</v>
       </c>
       <c r="O2" t="n">
-        <v>10302.25342564116</v>
+        <v>11823.7365588148</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4570.520850279678</v>
+        <v>5042.298495067215</v>
       </c>
       <c r="B2" t="n">
-        <v>5095.128507301514</v>
+        <v>6421.511730469836</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45965.96245611054</v>
+        <v>53838.19196405857</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41972.58945122286</v>
+        <v>47405.14060738889</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43875.22642653178</v>
+        <v>53573.26199887139</v>
       </c>
       <c r="M2" t="n">
-        <v>18015.64306159729</v>
+        <v>20935.70896779413</v>
       </c>
       <c r="N2" t="n">
-        <v>10923.79731980866</v>
+        <v>12666.29850282887</v>
       </c>
       <c r="O2" t="n">
-        <v>11973.13874139941</v>
+        <v>13702.58732167914</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4570.520850279678</v>
+        <v>5042.298495067215</v>
       </c>
       <c r="B2" t="n">
-        <v>5095.128507301514</v>
+        <v>6421.511730469836</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45965.96245611054</v>
+        <v>53838.19196405857</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41972.58945122286</v>
+        <v>47405.14060738889</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43875.22642653178</v>
+        <v>53573.26199887139</v>
       </c>
       <c r="M2" t="n">
-        <v>18015.64306159729</v>
+        <v>20935.70896779413</v>
       </c>
       <c r="N2" t="n">
-        <v>10923.79731980866</v>
+        <v>12666.29850282887</v>
       </c>
       <c r="O2" t="n">
-        <v>11973.13874139941</v>
+        <v>13702.58732167914</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_fix_cost.xlsx
+++ b/results/[6_green_friendly]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>550.6349724949675</v>
+        <v>2632.53230893218</v>
       </c>
       <c r="B2" t="n">
-        <v>2856.149191032757</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>41705.16887168352</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11789.86550427104</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6879.276884578626</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2138.767371038613</v>
       </c>
       <c r="I2" t="n">
-        <v>17766.310461836</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15751.60187077389</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4908.481517393488</v>
+        <v>2058.510482113491</v>
       </c>
       <c r="O2" t="n">
-        <v>2798.437062251979</v>
+        <v>1508.259426691686</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3101.004249988794</v>
+        <v>3996.663335846861</v>
       </c>
       <c r="B2" t="n">
-        <v>8267.638281842959</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>160869.2240877218</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41454.20656436202</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13141.99464213426</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6389.589810160349</v>
       </c>
       <c r="I2" t="n">
-        <v>35005.84161830663</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80190.03322841038</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15307.01712655463</v>
+        <v>7532.666192049079</v>
       </c>
       <c r="O2" t="n">
-        <v>5276.387211385127</v>
+        <v>4227.326925742268</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5069.659360429414</v>
+        <v>15235.55546360591</v>
       </c>
       <c r="B2" t="n">
-        <v>20863.30189647256</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>250229.6710899786</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91940.55226614195</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14689.97692757888</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9355.016094070535</v>
       </c>
       <c r="I2" t="n">
-        <v>85567.10044626478</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>130359.1038040414</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19088.71540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23495.38725568871</v>
+        <v>12050.0990560046</v>
       </c>
       <c r="O2" t="n">
-        <v>18873.62690052681</v>
+        <v>7656.910856883433</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5069.659360429414</v>
+        <v>15235.55546360591</v>
       </c>
       <c r="B2" t="n">
-        <v>20863.30189647256</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>250229.6710899786</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91940.55226614195</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14689.97692757888</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9355.016094070535</v>
       </c>
       <c r="I2" t="n">
-        <v>85567.10044626478</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>130359.1038040414</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19088.71540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23495.38725568871</v>
+        <v>12050.0990560046</v>
       </c>
       <c r="O2" t="n">
-        <v>18873.62690052681</v>
+        <v>7656.910856883433</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5069.659360429414</v>
+        <v>15235.55546360591</v>
       </c>
       <c r="B2" t="n">
-        <v>20863.30189647256</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>250229.6710899786</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91940.55226614195</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14689.97692757888</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9355.016094070535</v>
       </c>
       <c r="I2" t="n">
-        <v>85567.10044626478</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>130359.1038040414</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19088.71540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23495.38725568871</v>
+        <v>12050.0990560046</v>
       </c>
       <c r="O2" t="n">
-        <v>18873.62690052681</v>
+        <v>7656.910856883433</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5069.659360429414</v>
+        <v>15235.55546360591</v>
       </c>
       <c r="B2" t="n">
-        <v>20863.30189647256</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>250229.6710899786</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91940.55226614195</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14689.97692757888</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129467</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9355.016094070535</v>
       </c>
       <c r="I2" t="n">
-        <v>85567.10044626478</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>130359.1038040414</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19088.71540261811</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23495.38725568871</v>
+        <v>12050.0990560046</v>
       </c>
       <c r="O2" t="n">
-        <v>18873.62690052681</v>
+        <v>7656.910856883433</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_fix_cost.xlsx
+++ b/results/[6_green_friendly]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3125.119287316165</v>
       </c>
       <c r="B2" t="n">
-        <v>17.40291001593653</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>38683.01019569611</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.37922676181793</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7546.507577201783</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2027.422343033684</v>
       </c>
       <c r="I2" t="n">
-        <v>99.56472866795521</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.9381012440463</v>
+        <v>1894.610970861271</v>
       </c>
       <c r="O2" t="n">
-        <v>24.14334850722242</v>
+        <v>1596.959756313929</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.04538817475573</v>
+        <v>5592.841625345535</v>
       </c>
       <c r="B2" t="n">
-        <v>46.45204577748675</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>158331.0001646095</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>168.1190110777331</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13162.01156291295</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6555.616545050024</v>
       </c>
       <c r="I2" t="n">
-        <v>285.1346004122072</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>45.33722996212497</v>
+        <v>6037.449078019277</v>
       </c>
       <c r="O2" t="n">
-        <v>48.58376494331903</v>
+        <v>5007.288439540145</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30.0385370189617</v>
+        <v>24989.03564310195</v>
       </c>
       <c r="B2" t="n">
-        <v>91.43806656918846</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>233797.8217711074</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.2218895273641</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13276.08564128262</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9705.535366320997</v>
       </c>
       <c r="I2" t="n">
-        <v>560.3266589375276</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>102.402660734942</v>
+        <v>10316.13445312728</v>
       </c>
       <c r="O2" t="n">
-        <v>90.97662657860657</v>
+        <v>7412.70627513708</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30.0385370189617</v>
+        <v>24989.03564310195</v>
       </c>
       <c r="B2" t="n">
-        <v>91.43806656918846</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>233797.8217711074</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.2218895273641</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13276.08564128262</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9705.535366320997</v>
       </c>
       <c r="I2" t="n">
-        <v>560.3266589375276</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>102.402660734942</v>
+        <v>11242.41425508182</v>
       </c>
       <c r="O2" t="n">
-        <v>94.11597865138886</v>
+        <v>7412.70627513708</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.48792722472318</v>
+        <v>31125.48275843248</v>
       </c>
       <c r="B2" t="n">
-        <v>91.43806656918846</v>
+        <v>154.4757918726473</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>233797.8217711074</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.2218895273641</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13276.08564128262</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9705.535366320997</v>
       </c>
       <c r="I2" t="n">
-        <v>560.3266589375276</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>102.402660734942</v>
+        <v>13513.47261752928</v>
       </c>
       <c r="O2" t="n">
-        <v>96.80401342787891</v>
+        <v>8079.009742155169</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37.48792722472318</v>
+        <v>31125.48275843248</v>
       </c>
       <c r="B2" t="n">
-        <v>91.43806656918846</v>
+        <v>154.4757918726473</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>233797.8217711074</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.2218895273641</v>
+        <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13276.08564128262</v>
       </c>
       <c r="G2" t="n">
-        <v>23.31626605246608</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9705.535366320997</v>
       </c>
       <c r="I2" t="n">
-        <v>560.3266589375276</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>102.402660734942</v>
+        <v>13513.47261752928</v>
       </c>
       <c r="O2" t="n">
-        <v>96.80401342787891</v>
+        <v>8079.009742155169</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_fix_cost.xlsx
+++ b/results/[6_green_friendly]_#_fix_cost.xlsx
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2058.510482113491</v>
+        <v>2058.510482113492</v>
       </c>
       <c r="O2" t="n">
         <v>1508.259426691686</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3996.663335846861</v>
+        <v>3996.663335846843</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>160869.2240877218</v>
+        <v>160869.2240877219</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6389.589810160349</v>
+        <v>6389.589810160347</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7532.666192049079</v>
+        <v>7532.666192049068</v>
       </c>
       <c r="O2" t="n">
-        <v>4227.326925742268</v>
+        <v>4227.32692574227</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15235.55546360591</v>
+        <v>15235.5554636059</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>14689.97692757888</v>
+        <v>14689.97692757889</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9355.016094070535</v>
+        <v>9355.016094070601</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12050.0990560046</v>
+        <v>12050.09905600459</v>
       </c>
       <c r="O2" t="n">
-        <v>7656.910856883433</v>
+        <v>7656.910856883376</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15235.55546360591</v>
+        <v>15235.5554636059</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>14689.97692757888</v>
+        <v>14689.97692757889</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9355.016094070535</v>
+        <v>9355.016094070601</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12050.0990560046</v>
+        <v>12050.09905600459</v>
       </c>
       <c r="O2" t="n">
-        <v>7656.910856883433</v>
+        <v>7656.910856883376</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15235.55546360591</v>
+        <v>15235.5554636059</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>14689.97692757888</v>
+        <v>14689.97692757889</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9355.016094070535</v>
+        <v>9355.016094070601</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12050.0990560046</v>
+        <v>12050.09905600459</v>
       </c>
       <c r="O2" t="n">
-        <v>7656.910856883433</v>
+        <v>7656.910856883376</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15235.55546360591</v>
+        <v>15235.5554636059</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>231779.209144148</v>
       </c>
       <c r="F2" t="n">
-        <v>14689.97692757888</v>
+        <v>14689.97692757889</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9355.016094070535</v>
+        <v>9355.016094070601</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12050.0990560046</v>
+        <v>12050.09905600459</v>
       </c>
       <c r="O2" t="n">
-        <v>7656.910856883433</v>
+        <v>7656.910856883376</v>
       </c>
     </row>
   </sheetData>

--- a/results/[6_green_friendly]_#_fix_cost.xlsx
+++ b/results/[6_green_friendly]_#_fix_cost.xlsx
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129279</v>
+        <v>6476.740570129481</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16841.08627624734</v>
+        <v>16841.08627624735</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5925.595846434439</v>
+        <v>5925.595846434378</v>
       </c>
       <c r="O2" t="n">
-        <v>5783.209061509805</v>
+        <v>5783.209061509797</v>
       </c>
     </row>
   </sheetData>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49207.63982320241</v>
+        <v>49207.63982320238</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129279</v>
+        <v>6476.740570129481</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8596.626505690228</v>
+        <v>8596.626505690172</v>
       </c>
       <c r="O2" t="n">
-        <v>6797.920363700021</v>
+        <v>6797.920363700026</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>905.2525562708205</v>
+        <v>905.2525562708615</v>
       </c>
       <c r="B2" t="n">
-        <v>14956.7244159437</v>
+        <v>14956.7244159434</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129279</v>
+        <v>6476.740570129481</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12647.54260460591</v>
+        <v>12647.54260460602</v>
       </c>
       <c r="O2" t="n">
         <v>11316.43706107227</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>905.2525562708205</v>
+        <v>905.2525562708615</v>
       </c>
       <c r="B2" t="n">
-        <v>14956.7244159437</v>
+        <v>14956.7244159434</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129279</v>
+        <v>6476.740570129481</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12647.54260460591</v>
+        <v>12647.54260460602</v>
       </c>
       <c r="O2" t="n">
         <v>11316.43706107227</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>905.2525562708205</v>
+        <v>905.2525562708615</v>
       </c>
       <c r="B2" t="n">
-        <v>14956.7244159437</v>
+        <v>14956.7244159434</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129279</v>
+        <v>6476.740570129481</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12647.54260460591</v>
+        <v>12647.54260460602</v>
       </c>
       <c r="O2" t="n">
         <v>11316.43706107227</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>905.2525562708205</v>
+        <v>905.2525562708615</v>
       </c>
       <c r="B2" t="n">
-        <v>14956.7244159437</v>
+        <v>14956.7244159434</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6476.740570129279</v>
+        <v>6476.740570129481</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>12647.54260460591</v>
+        <v>12647.54260460602</v>
       </c>
       <c r="O2" t="n">
         <v>11316.43706107227</v>

--- a/results/[6_green_friendly]_#_fix_cost.xlsx
+++ b/results/[6_green_friendly]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>8707.039609781334</v>
       </c>
       <c r="N2" t="n">
-        <v>5744.096799946036</v>
+        <v>5744.096799946033</v>
       </c>
       <c r="O2" t="n">
-        <v>5589.635007435185</v>
+        <v>5589.635007435183</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4570.048142274309</v>
+        <v>4566.25257382453</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35374.31877773289</v>
+        <v>35593.64721591155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53573.26199887139</v>
+        <v>53067.25365860503</v>
       </c>
       <c r="M2" t="n">
-        <v>18074.35048528854</v>
+        <v>18080.22084960085</v>
       </c>
       <c r="N2" t="n">
         <v>8506.387057313099</v>
       </c>
       <c r="O2" t="n">
-        <v>9664.202924111112</v>
+        <v>9678.014132395467</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2289.569120990697</v>
+        <v>2341.888254333185</v>
       </c>
       <c r="B2" t="n">
-        <v>6421.511730469836</v>
+        <v>6352.710371959407</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53838.19196405857</v>
+        <v>53743.99346900621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47405.14060738889</v>
+        <v>47624.60274704682</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53573.26199887139</v>
+        <v>53067.25365860503</v>
       </c>
       <c r="M2" t="n">
-        <v>20935.70896779413</v>
+        <v>21003.53454366937</v>
       </c>
       <c r="N2" t="n">
-        <v>12148.8294540729</v>
+        <v>12138.52420792558</v>
       </c>
       <c r="O2" t="n">
-        <v>11823.7365588148</v>
+        <v>11824.45056108007</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2289.569120990697</v>
+        <v>2341.888254333185</v>
       </c>
       <c r="B2" t="n">
-        <v>6421.511730469836</v>
+        <v>6352.710371959407</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53838.19196405857</v>
+        <v>53743.99346900621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47405.14060738889</v>
+        <v>47624.60274704682</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53573.26199887139</v>
+        <v>53067.25365860503</v>
       </c>
       <c r="M2" t="n">
-        <v>20935.70896779413</v>
+        <v>21003.53454366937</v>
       </c>
       <c r="N2" t="n">
-        <v>12233.16180906476</v>
+        <v>12225.049677232</v>
       </c>
       <c r="O2" t="n">
-        <v>11823.7365588148</v>
+        <v>11824.45056108007</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5042.298495067215</v>
+        <v>5082.388487423812</v>
       </c>
       <c r="B2" t="n">
-        <v>6421.511730469836</v>
+        <v>6352.710371959407</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53838.19196405857</v>
+        <v>53743.99346900621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47405.14060738889</v>
+        <v>47624.60274704682</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53573.26199887139</v>
+        <v>53067.25365860503</v>
       </c>
       <c r="M2" t="n">
-        <v>20935.70896779413</v>
+        <v>21003.53454366937</v>
       </c>
       <c r="N2" t="n">
-        <v>12666.29850282887</v>
+        <v>12665.64083094451</v>
       </c>
       <c r="O2" t="n">
-        <v>13702.58732167914</v>
+        <v>13703.30132394448</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5042.298495067215</v>
+        <v>5082.388487423812</v>
       </c>
       <c r="B2" t="n">
-        <v>6421.511730469836</v>
+        <v>6352.710371959407</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53838.19196405857</v>
+        <v>53743.99346900621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47405.14060738889</v>
+        <v>47624.60274704682</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53573.26199887139</v>
+        <v>53067.25365860503</v>
       </c>
       <c r="M2" t="n">
-        <v>20935.70896779413</v>
+        <v>21003.53454366937</v>
       </c>
       <c r="N2" t="n">
-        <v>12666.29850282887</v>
+        <v>12665.64083094451</v>
       </c>
       <c r="O2" t="n">
-        <v>13702.58732167914</v>
+        <v>13703.30132394448</v>
       </c>
     </row>
   </sheetData>
